--- a/LB DS/Love Babbar.xlsx
+++ b/LB DS/Love Babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitdata\c-programming\LB DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E38F7-72B0-49C7-A163-14E0FC1EDF99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06035DC-3352-4E16-B16D-9722C48CCEBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,9 @@
   </si>
   <si>
     <t>done , not submitted</t>
+  </si>
+  <si>
+    <t>Not able to solve</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1980,7 @@
   <dimension ref="A1:K481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2166,7 +2169,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
       <c r="F11" s="6">
         <v>6</v>
@@ -2187,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="F12" s="6">
         <v>7</v>
@@ -2208,7 +2211,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="F13" s="6">
         <v>8</v>
